--- a/public/files/Comments (1).xlsx
+++ b/public/files/Comments (1).xlsx
@@ -1,28 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="540" windowWidth="16935" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Excel sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Excel sheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>Academic Year</t>
   </si>
   <si>
-    <t>Semester</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>Grade Level</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>No.</t>
   </si>
   <si>
     <t>Students ID</t>
@@ -31,57 +35,29 @@
     <t>Students Name</t>
   </si>
   <si>
-    <t>Quater 1</t>
-  </si>
-  <si>
-    <t>Quater 2</t>
-  </si>
-  <si>
-    <t>Quater 3</t>
-  </si>
-  <si>
-    <t>Quater 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chanok </t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>grgfg</t>
-  </si>
-  <si>
-    <t>ergfdj</t>
-  </si>
-  <si>
-    <t>fghj</t>
-  </si>
-  <si>
-    <t>Christian</t>
-  </si>
-  <si>
-    <t>asdf</t>
-  </si>
-  <si>
-    <t>ja</t>
-  </si>
-  <si>
-    <t>hgj</t>
-  </si>
-  <si>
-    <t>GraceChristine</t>
-  </si>
-  <si>
-    <t>asd</t>
+    <t>Quarter 1</t>
+  </si>
+  <si>
+    <t>Quarter 2</t>
+  </si>
+  <si>
+    <t>Quarter 3</t>
+  </si>
+  <si>
+    <t>Quarter 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Tw Cen MT"/>
@@ -92,34 +68,28 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -409,131 +379,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="7" width="50" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12" customWidth="true" style="0"/>
+    <col min="3" max="3" width="19" customWidth="true" style="0"/>
+    <col min="4" max="4" width="50" customWidth="true" style="0"/>
+    <col min="5" max="5" width="50" customWidth="true" style="0"/>
+    <col min="6" max="6" width="50" customWidth="true" style="0"/>
+    <col min="7" max="7" width="50" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>2018</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>2560780994</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>2580981099</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>2490080621</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="" right="" top="" bottom="" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>